--- a/Downer/29267/res_F2LSIP ITP 10 - Rip Rap.xlsx
+++ b/Downer/29267/res_F2LSIP ITP 10 - Rip Rap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\28974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225EFA58-D13B-4832-882C-9EB120E2202A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807B650D-1174-4D1E-B51F-65F86D7D7479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="990" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1290" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="67">
   <si>
     <t>type</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>○ Rocks to be evenly distributed in size to lock togeather and minimise voids.</t>
+  </si>
+  <si>
+    <t>34bdbf07-26c5-462b-9621-a5f534d7fb5f</t>
+  </si>
+  <si>
+    <t>○ Please Add Bidim and AP150 Material Approval</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +573,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,13 +748,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1093,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1129,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1153,8 +1172,11 @@
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1162,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1242,7 +1264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +1272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1699,11 +1721,11 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>31</v>
+      <c r="A71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,39 +1757,39 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +1797,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1813,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,23 +1837,23 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1855,7 +1877,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,6 +1933,14 @@
         <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>57</v>
       </c>
     </row>
